--- a/medicine/Enfance/Clotilde_Bernos/Clotilde_Bernos.xlsx
+++ b/medicine/Enfance/Clotilde_Bernos/Clotilde_Bernos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clotilde Bernos, née le 14 avril 1950 à Paris, est une auteure et illustratrice française en littérature jeunesse. Ses histoires traitent de sujets comme le Sida, la pauvreté, l'exclusion, l'amitié
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clotilde Bernos naît à Paris le 14 avril 1950. Elle a exercé de nombreux métiers et a beaucoup voyagé. Elle a été tour à tour danseuse, artisane, hôtesse de l'air, navigatrice, professeure de français, elle a vécu dans plusieurs pays et en Provence[1]. Actuellement, elle propose, en plus de son travail d'auteure, des ateliers d'écriture dans les écoles[2],[3] des rencontres[4] et lectures publiques et des résidences. Elle réside actuellement à Guérande, en Loire-Atlantique[5].
-Ses histoires traitent de sujets comme le Sida, la pauvreté, l'exclusion, l'amitié[6],[7]. L'un de ses livres notamment, Tellement tu es mas sœur, raconte l'histoire d'une enfant atteinte du sida à la suite d'une transfusion sanguine. Hélène Jaccomard dans « Lire le sida : témoignages au féminin » fait une analyse des récits féminins, dont celui de Bernos sur ce sujet[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clotilde Bernos naît à Paris le 14 avril 1950. Elle a exercé de nombreux métiers et a beaucoup voyagé. Elle a été tour à tour danseuse, artisane, hôtesse de l'air, navigatrice, professeure de français, elle a vécu dans plusieurs pays et en Provence. Actuellement, elle propose, en plus de son travail d'auteure, des ateliers d'écriture dans les écoles, des rencontres et lectures publiques et des résidences. Elle réside actuellement à Guérande, en Loire-Atlantique.
+Ses histoires traitent de sujets comme le Sida, la pauvreté, l'exclusion, l'amitié,. L'un de ses livres notamment, Tellement tu es mas sœur, raconte l'histoire d'une enfant atteinte du sida à la suite d'une transfusion sanguine. Hélène Jaccomard dans « Lire le sida : témoignages au féminin » fait une analyse des récits féminins, dont celui de Bernos sur ce sujet.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2013 : prix de la Nouvelle pour La pleureuse du Bâtiment L, éditions Montreuil[4]
-2013 : prix Poésie des lecteurs Lire et faire Lire, au Salon du livre de Paris Porte de Versailles pour Les jours sont fous, le temps itou[9]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2013 : prix de la Nouvelle pour La pleureuse du Bâtiment L, éditions Montreuil
+2013 : prix Poésie des lecteurs Lire et faire Lire, au Salon du livre de Paris Porte de Versailles pour Les jours sont fous, le temps itou</t>
         </is>
       </c>
     </row>
